--- a/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>48.51</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>48.51</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -658,17 +718,21 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -718,7 +719,6 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>33.50</t>
@@ -734,6 +734,328 @@
       </c>
       <c r="H4" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1061,4 +1062,1044 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3859</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2102,4 +2103,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2111,7 +2112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2122,17 +2123,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2142,14 +2163,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.68</v>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2158,14 +2201,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.77</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="4">
@@ -2174,14 +2307,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
@@ -2190,13 +2323,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2244,7 +2245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,17 +2256,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2275,14 +2296,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -2291,14 +2334,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.68</v>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2307,14 +2372,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>0.77</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="5">
@@ -2323,14 +2494,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6">
@@ -2339,13 +2510,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2415,7 +2416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,17 +2427,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2446,14 +2467,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2462,14 +2505,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2478,14 +2543,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.68</v>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2494,14 +2581,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.77</v>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2510,14 +2619,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.21</v>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2526,13 +2657,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.24</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4.68</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>0.77</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,7 +1694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +1826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2529,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2851,7 +3188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3014,7 +3351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002895-川恒股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.24</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4.68</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>0.77</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -616,7 +633,833 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -936,7 +1779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1524,7 +2367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1694,7 +2537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1826,7 +2669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2866,7 +3709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3188,7 +4031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,136 +4192,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001264</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002327</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>